--- a/data/trans_orig/P70C3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CFC4DCA-2101-407E-AFBC-87CC3ABF011A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8824FE0-855A-49A3-B0B9-265763EC34D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{82441442-3544-458B-8311-8DA10FD0A5A0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A71A0A4-9776-4ACF-B3BE-25466F13707B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="329">
   <si>
     <t>Población según si le resulta difícil concentrarse en su trabajo debido a sus responsabilidades familiares en 2023 (Tasa respuesta: 42,51%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>52,04%</t>
   </si>
   <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>53,3%</t>
   </si>
   <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
   </si>
   <si>
     <t>52,62%</t>
   </si>
   <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,28 +104,28 @@
     <t>19,56%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>28,75%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
@@ -134,871 +134,889 @@
     <t>6,91%</t>
   </si>
   <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>2,63%</t>
@@ -1416,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E645FAA-A196-4955-892E-E7F59B763FB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2ECFEE-6B19-4025-8FB0-4CD4A7F37E92}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1828,10 +1846,10 @@
         <v>65</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,13 +1864,13 @@
         <v>52039</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -1861,13 +1879,13 @@
         <v>44528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -1876,18 +1894,18 @@
         <v>96567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1899,13 +1917,13 @@
         <v>149389</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>170</v>
@@ -1914,13 +1932,13 @@
         <v>113338</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>312</v>
@@ -1929,13 +1947,13 @@
         <v>262726</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1950,13 +1968,13 @@
         <v>69715</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>102</v>
@@ -1965,13 +1983,13 @@
         <v>65198</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>181</v>
@@ -1980,13 +1998,13 @@
         <v>134912</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,13 +2019,13 @@
         <v>25954</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -2016,13 +2034,13 @@
         <v>17826</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -2031,13 +2049,13 @@
         <v>43780</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2070,13 @@
         <v>29497</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2067,13 +2085,13 @@
         <v>14132</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -2082,13 +2100,13 @@
         <v>43629</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,13 +2121,13 @@
         <v>12780</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -2118,13 +2136,13 @@
         <v>14610</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -2133,13 +2151,13 @@
         <v>27390</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,13 +2172,13 @@
         <v>5382</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2169,13 +2187,13 @@
         <v>3133</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2184,13 +2202,13 @@
         <v>8515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2223,13 @@
         <v>292717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>340</v>
@@ -2220,13 +2238,13 @@
         <v>228236</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>628</v>
@@ -2235,18 +2253,18 @@
         <v>520953</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2255,16 +2273,16 @@
         <v>260</v>
       </c>
       <c r="D18" s="7">
-        <v>343996</v>
+        <v>343997</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>278</v>
@@ -2273,13 +2291,13 @@
         <v>220018</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>538</v>
@@ -2288,13 +2306,13 @@
         <v>564014</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,16 +2324,16 @@
         <v>138</v>
       </c>
       <c r="D19" s="7">
-        <v>136626</v>
+        <v>136627</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>191</v>
@@ -2324,13 +2342,13 @@
         <v>130852</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>329</v>
@@ -2339,13 +2357,13 @@
         <v>267478</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2378,13 @@
         <v>62819</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -2375,13 +2393,13 @@
         <v>39153</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -2390,13 +2408,13 @@
         <v>101972</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2429,13 @@
         <v>48359</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -2426,13 +2444,13 @@
         <v>35614</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M21" s="7">
         <v>93</v>
@@ -2441,13 +2459,13 @@
         <v>83974</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,13 +2480,13 @@
         <v>32503</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -2480,10 +2498,10 @@
         <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -2492,13 +2510,13 @@
         <v>47607</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,13 +2531,13 @@
         <v>9049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2528,13 +2546,13 @@
         <v>3838</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -2543,13 +2561,13 @@
         <v>12888</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,16 +2579,16 @@
         <v>530</v>
       </c>
       <c r="D24" s="7">
-        <v>633353</v>
+        <v>633354</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="7">
         <v>600</v>
@@ -2579,13 +2597,13 @@
         <v>444579</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M24" s="7">
         <v>1130</v>
@@ -2594,18 +2612,18 @@
         <v>1077932</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2617,13 +2635,13 @@
         <v>241564</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>260</v>
@@ -2632,13 +2650,13 @@
         <v>195854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>482</v>
@@ -2647,13 +2665,13 @@
         <v>437419</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2686,13 @@
         <v>66398</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>88</v>
@@ -2683,13 +2701,13 @@
         <v>68939</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>148</v>
@@ -2698,13 +2716,13 @@
         <v>135337</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2737,13 @@
         <v>28269</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H27" s="7">
         <v>32</v>
@@ -2734,13 +2752,13 @@
         <v>26512</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M27" s="7">
         <v>55</v>
@@ -2749,13 +2767,13 @@
         <v>54781</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2788,13 @@
         <v>25578</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H28" s="7">
         <v>25</v>
@@ -2785,13 +2803,13 @@
         <v>19548</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -2800,13 +2818,13 @@
         <v>45126</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2839,13 @@
         <v>2909</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -2839,10 +2857,10 @@
         <v>64</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -2851,13 +2869,13 @@
         <v>11674</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2890,13 @@
         <v>3890</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -2887,13 +2905,13 @@
         <v>4876</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -2902,13 +2920,13 @@
         <v>8766</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2941,13 @@
         <v>368608</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="7">
         <v>424</v>
@@ -2938,13 +2956,13 @@
         <v>324493</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M31" s="7">
         <v>755</v>
@@ -2953,18 +2971,18 @@
         <v>693102</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2976,13 +2994,13 @@
         <v>290319</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>329</v>
@@ -2991,13 +3009,13 @@
         <v>263385</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>606</v>
@@ -3006,13 +3024,13 @@
         <v>553704</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3045,13 @@
         <v>134611</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H33" s="7">
         <v>159</v>
@@ -3042,13 +3060,13 @@
         <v>110434</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M33" s="7">
         <v>290</v>
@@ -3057,13 +3075,13 @@
         <v>245045</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3096,13 @@
         <v>25983</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="H34" s="7">
         <v>42</v>
@@ -3093,13 +3111,13 @@
         <v>31086</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M34" s="7">
         <v>72</v>
@@ -3108,13 +3126,13 @@
         <v>57069</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,10 +3150,10 @@
         <v>56</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H35" s="7">
         <v>33</v>
@@ -3144,13 +3162,13 @@
         <v>22771</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M35" s="7">
         <v>49</v>
@@ -3159,13 +3177,13 @@
         <v>39582</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3198,13 @@
         <v>16548</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H36" s="7">
         <v>26</v>
@@ -3195,13 +3213,13 @@
         <v>16861</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>41</v>
@@ -3210,13 +3228,13 @@
         <v>33409</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,10 +3249,10 @@
         <v>10685</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>271</v>
@@ -3252,7 +3270,7 @@
         <v>273</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>154</v>
+        <v>274</v>
       </c>
       <c r="M37" s="7">
         <v>25</v>
@@ -3261,13 +3279,13 @@
         <v>28473</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3300,13 @@
         <v>494956</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" s="7">
         <v>604</v>
@@ -3297,13 +3315,13 @@
         <v>462326</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M38" s="7">
         <v>1083</v>
@@ -3312,13 +3330,13 @@
         <v>957282</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3353,13 @@
         <v>1052351</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H39" s="7">
         <v>1072</v>
@@ -3350,13 +3368,13 @@
         <v>816329</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M39" s="7">
         <v>1997</v>
@@ -3365,13 +3383,13 @@
         <v>1868681</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3404,13 @@
         <v>417528</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H40" s="7">
         <v>563</v>
@@ -3401,13 +3419,13 @@
         <v>388222</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>136</v>
+        <v>290</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="M40" s="7">
         <v>983</v>
@@ -3416,13 +3434,13 @@
         <v>805750</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3455,13 @@
         <v>146624</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H41" s="7">
         <v>158</v>
@@ -3452,13 +3470,13 @@
         <v>118268</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>102</v>
+        <v>301</v>
       </c>
       <c r="M41" s="7">
         <v>293</v>
@@ -3467,13 +3485,13 @@
         <v>264892</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3506,13 @@
         <v>126396</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>114</v>
+        <v>306</v>
       </c>
       <c r="H42" s="7">
         <v>134</v>
@@ -3503,13 +3521,13 @@
         <v>95224</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M42" s="7">
         <v>244</v>
@@ -3518,13 +3536,13 @@
         <v>221620</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>307</v>
+        <v>88</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3557,13 @@
         <v>66876</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="H43" s="7">
         <v>79</v>
@@ -3554,13 +3572,13 @@
         <v>56483</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M43" s="7">
         <v>136</v>
@@ -3569,13 +3587,13 @@
         <v>123358</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3608,13 @@
         <v>31900</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="H44" s="7">
         <v>32</v>
@@ -3605,13 +3623,13 @@
         <v>29636</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M44" s="7">
         <v>64</v>
@@ -3620,13 +3638,13 @@
         <v>61536</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3659,13 @@
         <v>1841674</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H45" s="7">
         <v>2038</v>
@@ -3656,13 +3674,13 @@
         <v>1504161</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M45" s="7">
         <v>3717</v>
@@ -3671,18 +3689,18 @@
         <v>3345836</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8824FE0-855A-49A3-B0B9-265763EC34D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E338C4E-7FF6-4F6A-86E8-2F05C2874306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A71A0A4-9776-4ACF-B3BE-25466F13707B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0F2509E-0851-4AED-9406-C6587CBCE167}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca/ casi nunca</t>
@@ -242,7 +242,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>51,04%</t>
@@ -401,7 +401,7 @@
     <t>2,96%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>54,31%</t>
@@ -560,7 +560,7 @@
     <t>1,98%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>65,53%</t>
@@ -1434,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2ECFEE-6B19-4025-8FB0-4CD4A7F37E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351FFF32-683F-47A9-969F-68B73CEC1B01}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70C3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E338C4E-7FF6-4F6A-86E8-2F05C2874306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AA01EAB-BF04-4461-8F20-67BA66D47EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0F2509E-0851-4AED-9406-C6587CBCE167}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C3E89061-0DC2-4C01-B8B3-1B301A9439F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="323">
   <si>
     <t>Población según si le resulta difícil concentrarse en su trabajo debido a sus responsabilidades familiares en 2023 (Tasa respuesta: 42,51%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>52,04%</t>
   </si>
   <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
   </si>
   <si>
     <t>53,3%</t>
   </si>
   <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
   </si>
   <si>
     <t>52,62%</t>
   </si>
   <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,28 +104,28 @@
     <t>19,56%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
   </si>
   <si>
     <t>28,75%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
@@ -134,28 +134,28 @@
     <t>6,91%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>Varias veces al mes</t>
@@ -164,28 +164,28 @@
     <t>11,82%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>Varias veces a la semana</t>
@@ -197,826 +197,808 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,3%</t>
+    <t>13,62%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>8,36%</t>
+    <t>8,85%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>2,63%</t>
@@ -1434,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351FFF32-683F-47A9-969F-68B73CEC1B01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C4134F-6A04-4912-BFD3-D27DFB71F3AD}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1846,10 +1828,10 @@
         <v>65</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,13 +1846,13 @@
         <v>52039</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -1879,13 +1861,13 @@
         <v>44528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -1894,18 +1876,18 @@
         <v>96567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1917,13 +1899,13 @@
         <v>149389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>170</v>
@@ -1932,13 +1914,13 @@
         <v>113338</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>312</v>
@@ -1947,13 +1929,13 @@
         <v>262726</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,13 +1950,13 @@
         <v>69715</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>102</v>
@@ -1983,13 +1965,13 @@
         <v>65198</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>181</v>
@@ -1998,13 +1980,13 @@
         <v>134912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,13 +2001,13 @@
         <v>25954</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -2034,13 +2016,13 @@
         <v>17826</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -2049,13 +2031,13 @@
         <v>43780</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,13 +2052,13 @@
         <v>29497</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2085,13 +2067,13 @@
         <v>14132</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -2100,13 +2082,13 @@
         <v>43629</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,13 +2103,13 @@
         <v>12780</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -2136,13 +2118,13 @@
         <v>14610</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -2151,13 +2133,13 @@
         <v>27390</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,13 +2154,13 @@
         <v>5382</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2187,13 +2169,13 @@
         <v>3133</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2202,13 +2184,13 @@
         <v>8515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,13 +2205,13 @@
         <v>292717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>340</v>
@@ -2238,13 +2220,13 @@
         <v>228236</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>628</v>
@@ -2253,18 +2235,18 @@
         <v>520953</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2273,16 +2255,16 @@
         <v>260</v>
       </c>
       <c r="D18" s="7">
-        <v>343997</v>
+        <v>343996</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>278</v>
@@ -2291,13 +2273,13 @@
         <v>220018</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>538</v>
@@ -2306,13 +2288,13 @@
         <v>564014</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,16 +2306,16 @@
         <v>138</v>
       </c>
       <c r="D19" s="7">
-        <v>136627</v>
+        <v>136626</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>191</v>
@@ -2342,13 +2324,13 @@
         <v>130852</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>329</v>
@@ -2357,13 +2339,13 @@
         <v>267478</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2360,13 @@
         <v>62819</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -2393,13 +2375,13 @@
         <v>39153</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -2408,13 +2390,13 @@
         <v>101972</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2411,13 @@
         <v>48359</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -2444,13 +2426,13 @@
         <v>35614</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M21" s="7">
         <v>93</v>
@@ -2459,13 +2441,13 @@
         <v>83974</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2462,13 @@
         <v>32503</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -2498,10 +2480,10 @@
         <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -2510,13 +2492,13 @@
         <v>47607</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,13 +2513,13 @@
         <v>9049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2546,13 +2528,13 @@
         <v>3838</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -2561,13 +2543,13 @@
         <v>12888</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,16 +2561,16 @@
         <v>530</v>
       </c>
       <c r="D24" s="7">
-        <v>633354</v>
+        <v>633353</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H24" s="7">
         <v>600</v>
@@ -2597,13 +2579,13 @@
         <v>444579</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M24" s="7">
         <v>1130</v>
@@ -2612,18 +2594,18 @@
         <v>1077932</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2635,13 +2617,13 @@
         <v>241564</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>260</v>
@@ -2650,13 +2632,13 @@
         <v>195854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>482</v>
@@ -2665,13 +2647,13 @@
         <v>437419</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2668,13 @@
         <v>66398</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>88</v>
@@ -2701,13 +2683,13 @@
         <v>68939</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>148</v>
@@ -2716,13 +2698,13 @@
         <v>135337</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2719,13 @@
         <v>28269</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H27" s="7">
         <v>32</v>
@@ -2752,13 +2734,13 @@
         <v>26512</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M27" s="7">
         <v>55</v>
@@ -2767,13 +2749,13 @@
         <v>54781</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2770,13 @@
         <v>25578</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H28" s="7">
         <v>25</v>
@@ -2803,13 +2785,13 @@
         <v>19548</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -2818,13 +2800,13 @@
         <v>45126</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2821,13 @@
         <v>2909</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -2857,10 +2839,10 @@
         <v>64</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -2869,13 +2851,13 @@
         <v>11674</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2872,13 @@
         <v>3890</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -2905,13 +2887,13 @@
         <v>4876</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -2920,13 +2902,13 @@
         <v>8766</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2923,13 @@
         <v>368608</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" s="7">
         <v>424</v>
@@ -2956,13 +2938,13 @@
         <v>324493</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M31" s="7">
         <v>755</v>
@@ -2971,18 +2953,18 @@
         <v>693102</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2994,13 +2976,13 @@
         <v>290319</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>329</v>
@@ -3009,13 +2991,13 @@
         <v>263385</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>606</v>
@@ -3024,13 +3006,13 @@
         <v>553704</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3027,13 @@
         <v>134611</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H33" s="7">
         <v>159</v>
@@ -3060,13 +3042,13 @@
         <v>110434</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M33" s="7">
         <v>290</v>
@@ -3075,13 +3057,13 @@
         <v>245045</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3078,13 @@
         <v>25983</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="H34" s="7">
         <v>42</v>
@@ -3111,13 +3093,13 @@
         <v>31086</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M34" s="7">
         <v>72</v>
@@ -3126,13 +3108,13 @@
         <v>57069</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,10 +3132,10 @@
         <v>56</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H35" s="7">
         <v>33</v>
@@ -3162,13 +3144,13 @@
         <v>22771</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M35" s="7">
         <v>49</v>
@@ -3177,13 +3159,13 @@
         <v>39582</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3180,13 @@
         <v>16548</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H36" s="7">
         <v>26</v>
@@ -3213,13 +3195,13 @@
         <v>16861</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>41</v>
@@ -3228,13 +3210,13 @@
         <v>33409</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,10 +3231,10 @@
         <v>10685</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>271</v>
@@ -3270,7 +3252,7 @@
         <v>273</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>274</v>
+        <v>154</v>
       </c>
       <c r="M37" s="7">
         <v>25</v>
@@ -3279,13 +3261,13 @@
         <v>28473</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3282,13 @@
         <v>494956</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" s="7">
         <v>604</v>
@@ -3315,13 +3297,13 @@
         <v>462326</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M38" s="7">
         <v>1083</v>
@@ -3330,13 +3312,13 @@
         <v>957282</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3335,13 @@
         <v>1052351</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H39" s="7">
         <v>1072</v>
@@ -3368,13 +3350,13 @@
         <v>816329</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M39" s="7">
         <v>1997</v>
@@ -3383,13 +3365,13 @@
         <v>1868681</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3386,13 @@
         <v>417528</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H40" s="7">
         <v>563</v>
@@ -3419,13 +3401,13 @@
         <v>388222</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>290</v>
+        <v>136</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="M40" s="7">
         <v>983</v>
@@ -3434,13 +3416,13 @@
         <v>805750</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3437,13 @@
         <v>146624</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H41" s="7">
         <v>158</v>
@@ -3470,13 +3452,13 @@
         <v>118268</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>301</v>
+        <v>102</v>
       </c>
       <c r="M41" s="7">
         <v>293</v>
@@ -3485,13 +3467,13 @@
         <v>264892</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3488,13 @@
         <v>126396</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>306</v>
+        <v>114</v>
       </c>
       <c r="H42" s="7">
         <v>134</v>
@@ -3521,13 +3503,13 @@
         <v>95224</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M42" s="7">
         <v>244</v>
@@ -3536,13 +3518,13 @@
         <v>221620</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>88</v>
+        <v>307</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3539,13 @@
         <v>66876</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>314</v>
+        <v>217</v>
       </c>
       <c r="H43" s="7">
         <v>79</v>
@@ -3572,13 +3554,13 @@
         <v>56483</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>315</v>
+        <v>117</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M43" s="7">
         <v>136</v>
@@ -3587,13 +3569,13 @@
         <v>123358</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3590,13 @@
         <v>31900</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>322</v>
+        <v>174</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="H44" s="7">
         <v>32</v>
@@ -3623,13 +3605,13 @@
         <v>29636</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M44" s="7">
         <v>64</v>
@@ -3638,13 +3620,13 @@
         <v>61536</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3641,13 @@
         <v>1841674</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H45" s="7">
         <v>2038</v>
@@ -3674,13 +3656,13 @@
         <v>1504161</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M45" s="7">
         <v>3717</v>
@@ -3689,18 +3671,18 @@
         <v>3345836</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
